--- a/PokemonGame/src/CreateNewPokeAI/CurrentPokeEditable.xlsx
+++ b/PokemonGame/src/CreateNewPokeAI/CurrentPokeEditable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\IdeaProjects\PokemonGame2\PokemonGame\src\CreateNewPokeAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD5A9DB-42AE-4CAE-AF15-EEC7A3F75594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEA3687-AE92-4A80-8B24-64901940AE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="804" yWindow="2844" windowWidth="17280" windowHeight="8880" xr2:uid="{E8CCA08E-141E-4AF1-8542-E5A0A228776E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -194,6 +194,339 @@
   </si>
   <si>
     <t>Bellsprout.png</t>
+  </si>
+  <si>
+    <t>Blastoise</t>
+  </si>
+  <si>
+    <t>Blastoise.png</t>
+  </si>
+  <si>
+    <t>Bulbasaur</t>
+  </si>
+  <si>
+    <t>Bulbasaur.png</t>
+  </si>
+  <si>
+    <t>Butterfree</t>
+  </si>
+  <si>
+    <t>Butterfree.png</t>
+  </si>
+  <si>
+    <t>Cascoon</t>
+  </si>
+  <si>
+    <t>Cascoon.png</t>
+  </si>
+  <si>
+    <t>Caterpie</t>
+  </si>
+  <si>
+    <t>Caterpie.png</t>
+  </si>
+  <si>
+    <t>Charizard</t>
+  </si>
+  <si>
+    <t>Charizard.png</t>
+  </si>
+  <si>
+    <t>Charmander</t>
+  </si>
+  <si>
+    <t>Charmander.png</t>
+  </si>
+  <si>
+    <t>Charmeleon</t>
+  </si>
+  <si>
+    <t>Charmeleon.png</t>
+  </si>
+  <si>
+    <t>Dragonair</t>
+  </si>
+  <si>
+    <t>Dragonair.png</t>
+  </si>
+  <si>
+    <t>Dragonite</t>
+  </si>
+  <si>
+    <t>Dragonite.png</t>
+  </si>
+  <si>
+    <t>TRIE</t>
+  </si>
+  <si>
+    <t>Dratini</t>
+  </si>
+  <si>
+    <t>Dratini.png</t>
+  </si>
+  <si>
+    <t>Dunsparce</t>
+  </si>
+  <si>
+    <t>Dunsparce.png</t>
+  </si>
+  <si>
+    <t>Dustox</t>
+  </si>
+  <si>
+    <t>Dustox.png</t>
+  </si>
+  <si>
+    <t>Farfetchd</t>
+  </si>
+  <si>
+    <t>Farfetchd.png</t>
+  </si>
+  <si>
+    <t>Feebas</t>
+  </si>
+  <si>
+    <t>Feebas.png</t>
+  </si>
+  <si>
+    <t>Forretress</t>
+  </si>
+  <si>
+    <t>Forretress.png</t>
+  </si>
+  <si>
+    <t>Furret</t>
+  </si>
+  <si>
+    <t>Furret.png</t>
+  </si>
+  <si>
+    <t>Gloom</t>
+  </si>
+  <si>
+    <t>Gloom.png</t>
+  </si>
+  <si>
+    <t>GalarianArticuno</t>
+  </si>
+  <si>
+    <t>GalarianArticuno.png</t>
+  </si>
+  <si>
+    <t>GalarianFarfetchd</t>
+  </si>
+  <si>
+    <t>GalarianFarfetchd.png</t>
+  </si>
+  <si>
+    <t>GalarianMoltres</t>
+  </si>
+  <si>
+    <t>GalarianMoltres.png</t>
+  </si>
+  <si>
+    <t>GalarianZapdos</t>
+  </si>
+  <si>
+    <t>GalarianZapdos.png</t>
+  </si>
+  <si>
+    <t>Sirfetchd</t>
+  </si>
+  <si>
+    <t>Sirfetchd.png</t>
+  </si>
+  <si>
+    <t>Herdier</t>
+  </si>
+  <si>
+    <t>Herdier.png</t>
+  </si>
+  <si>
+    <t>Hoothoot</t>
+  </si>
+  <si>
+    <t>Hoothoot.png</t>
+  </si>
+  <si>
+    <t>Basculegion</t>
+  </si>
+  <si>
+    <t>Basculegion.png</t>
+  </si>
+  <si>
+    <t>BasculinWhite</t>
+  </si>
+  <si>
+    <t>Basculinwhite.png</t>
+  </si>
+  <si>
+    <t>Igglybuff</t>
+  </si>
+  <si>
+    <t>Igglybuff.png</t>
+  </si>
+  <si>
+    <t>Ivysaur</t>
+  </si>
+  <si>
+    <t>Ivysaur.png</t>
+  </si>
+  <si>
+    <t>Jigglypuff</t>
+  </si>
+  <si>
+    <t>Jigglypuff.png</t>
+  </si>
+  <si>
+    <t>Ledian</t>
+  </si>
+  <si>
+    <t>Ledian.png</t>
+  </si>
+  <si>
+    <t>Ledyba</t>
+  </si>
+  <si>
+    <t>Ledyba.png</t>
+  </si>
+  <si>
+    <t>Lillipup</t>
+  </si>
+  <si>
+    <t>Lillipup.png</t>
+  </si>
+  <si>
+    <t>Luxio</t>
+  </si>
+  <si>
+    <t>Luxio.png</t>
+  </si>
+  <si>
+    <t>Luxray</t>
+  </si>
+  <si>
+    <t>Luxray.png</t>
+  </si>
+  <si>
+    <t>Metapod</t>
+  </si>
+  <si>
+    <t>Metapod.png</t>
+  </si>
+  <si>
+    <t>Mightyena</t>
+  </si>
+  <si>
+    <t>Mightyena.png</t>
+  </si>
+  <si>
+    <t>Milotic</t>
+  </si>
+  <si>
+    <t>Milotic.png</t>
+  </si>
+  <si>
+    <t>Minun</t>
+  </si>
+  <si>
+    <t>Minun.png</t>
+  </si>
+  <si>
+    <t>Moltres</t>
+  </si>
+  <si>
+    <t>Moltres.png</t>
+  </si>
+  <si>
+    <t>Noctowl</t>
+  </si>
+  <si>
+    <t>Noctowl.png</t>
+  </si>
+  <si>
+    <t>Oddish</t>
+  </si>
+  <si>
+    <t>Oddish.png</t>
+  </si>
+  <si>
+    <t>Patrat</t>
+  </si>
+  <si>
+    <t>Patrat.png</t>
+  </si>
+  <si>
+    <t>Pidgeot</t>
+  </si>
+  <si>
+    <t>Pidgeot.png</t>
+  </si>
+  <si>
+    <t>Pidgeotto</t>
+  </si>
+  <si>
+    <t>Pidgeotto.png</t>
+  </si>
+  <si>
+    <t>Pidgey</t>
+  </si>
+  <si>
+    <t>Pidgey.png</t>
+  </si>
+  <si>
+    <t>Pikipek</t>
+  </si>
+  <si>
+    <t>Pikipek.png</t>
+  </si>
+  <si>
+    <t>Pineco</t>
+  </si>
+  <si>
+    <t>Pineco.png</t>
+  </si>
+  <si>
+    <t>Plusle</t>
+  </si>
+  <si>
+    <t>Plusle.png</t>
+  </si>
+  <si>
+    <t>Poochyena</t>
+  </si>
+  <si>
+    <t>Poochyena.png</t>
+  </si>
+  <si>
+    <t>Raticate</t>
+  </si>
+  <si>
+    <t>Raticate.png</t>
+  </si>
+  <si>
+    <t>Rattata</t>
+  </si>
+  <si>
+    <t>Rattata.png</t>
+  </si>
+  <si>
+    <t>Scrafty</t>
+  </si>
+  <si>
+    <t>Scrafty.png</t>
+  </si>
+  <si>
+    <t>Scraggy</t>
+  </si>
+  <si>
+    <t>Scraggy.png</t>
+  </si>
+  <si>
+    <t>Sentret</t>
+  </si>
+  <si>
+    <t>Sentret.png</t>
   </si>
 </sst>
 </file>
@@ -545,16 +878,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56042D34-3CF6-4ABA-8B3A-014D20A0AE5E}">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AG66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="10" max="10" width="11.21875" customWidth="1"/>
     <col min="13" max="14" width="12.33203125" customWidth="1"/>
@@ -840,7 +1174,7 @@
         <v>460</v>
       </c>
       <c r="M7">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>161</v>
@@ -870,7 +1204,7 @@
         <v>460</v>
       </c>
       <c r="M8">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="N8">
         <v>161</v>
@@ -972,7 +1306,1670 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>188.5</v>
+      </c>
+      <c r="L12">
+        <f>SUM(100,83,79,85,105,78)</f>
+        <v>530</v>
+      </c>
+      <c r="M12">
+        <v>45</v>
+      </c>
+      <c r="N12">
+        <v>142</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>12.5</v>
+      </c>
+      <c r="L13">
+        <f>SUM(49,45,45,65,65,45)</f>
+        <v>314</v>
+      </c>
+      <c r="M13">
+        <v>45</v>
+      </c>
+      <c r="N13">
+        <v>64</v>
+      </c>
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>70.5</v>
+      </c>
+      <c r="L14">
+        <f>SUM(50,45,60,90,80,70)</f>
+        <v>395</v>
+      </c>
+      <c r="M14">
+        <v>45</v>
+      </c>
+      <c r="N14">
+        <v>198</v>
+      </c>
+      <c r="X14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>25.4</v>
+      </c>
+      <c r="L15">
+        <f>SUM(55,35,50,25,25,15)</f>
+        <v>205</v>
+      </c>
+      <c r="M15">
+        <v>120</v>
+      </c>
+      <c r="N15">
+        <v>72</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>6.4</v>
+      </c>
+      <c r="L16">
+        <f>SUM(35,30,45,20,20,45)</f>
+        <v>195</v>
+      </c>
+      <c r="M16">
+        <v>255</v>
+      </c>
+      <c r="N16">
+        <v>39</v>
+      </c>
+      <c r="Z16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>199.5</v>
+      </c>
+      <c r="L17">
+        <f>SUM(78,84,78,109,85,100)</f>
+        <v>534</v>
+      </c>
+      <c r="M17">
+        <v>45</v>
+      </c>
+      <c r="N17">
+        <v>267</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>18.7</v>
+      </c>
+      <c r="L18">
+        <f>SUM(43,52,39,60,50,65)</f>
+        <v>309</v>
+      </c>
+      <c r="M18">
+        <v>45</v>
+      </c>
+      <c r="N18">
+        <v>62</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>41.5</v>
+      </c>
+      <c r="L19">
+        <f>SUM(58,64,58,80,65,80)</f>
+        <v>405</v>
+      </c>
+      <c r="M19">
+        <v>45</v>
+      </c>
+      <c r="N19">
+        <v>142</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>36.4</v>
+      </c>
+      <c r="L20">
+        <f>SUM(65,84,61,70,70,70)</f>
+        <v>420</v>
+      </c>
+      <c r="M20">
+        <v>45</v>
+      </c>
+      <c r="N20">
+        <v>147</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>463</v>
+      </c>
+      <c r="L21">
+        <f>SUM(95,134,91,100,100,80)</f>
+        <v>600</v>
+      </c>
+      <c r="M21">
+        <v>45</v>
+      </c>
+      <c r="N21">
+        <v>147</v>
+      </c>
+      <c r="X21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>7.3</v>
+      </c>
+      <c r="L22">
+        <f>SUM(45,64,41,50,50,50)</f>
+        <v>300</v>
+      </c>
+      <c r="M22">
+        <v>45</v>
+      </c>
+      <c r="N22">
+        <v>60</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>30.9</v>
+      </c>
+      <c r="L23">
+        <f>SUM(70,70,100,65,65,45)</f>
+        <v>415</v>
+      </c>
+      <c r="M23">
+        <v>190</v>
+      </c>
+      <c r="N23">
+        <v>145</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>69.7</v>
+      </c>
+      <c r="L24">
+        <f>SUM(70,50,60,50,90,65)</f>
+        <v>385</v>
+      </c>
+      <c r="M24">
+        <v>45</v>
+      </c>
+      <c r="N24">
+        <v>173</v>
+      </c>
+      <c r="V24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>33.1</v>
+      </c>
+      <c r="L25">
+        <f>SUM(55,89,52,58,62,60)</f>
+        <v>376</v>
+      </c>
+      <c r="M25">
+        <v>45</v>
+      </c>
+      <c r="N25">
+        <v>132</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="X25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>16.3</v>
+      </c>
+      <c r="L26">
+        <f>SUM(20, 15,20,10,55,80)</f>
+        <v>200</v>
+      </c>
+      <c r="M26">
+        <v>255</v>
+      </c>
+      <c r="N26">
+        <v>40</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>277.3</v>
+      </c>
+      <c r="L27">
+        <f>SUM(140,90,75,60,60,40)</f>
+        <v>465</v>
+      </c>
+      <c r="M27">
+        <v>75</v>
+      </c>
+      <c r="N27">
+        <v>142</v>
+      </c>
+      <c r="Z27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="L28">
+        <f>SUM(64,76,85,45,55,60)</f>
+        <v>385</v>
+      </c>
+      <c r="M28">
+        <v>90</v>
+      </c>
+      <c r="N28">
+        <v>116</v>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>19</v>
+      </c>
+      <c r="L29">
+        <f>SUM(70,65,60,85,75,40)</f>
+        <v>395</v>
+      </c>
+      <c r="M29">
+        <v>120</v>
+      </c>
+      <c r="N29">
+        <v>138</v>
+      </c>
+      <c r="R29" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>112.2</v>
+      </c>
+      <c r="L30">
+        <f>SUM(85,85,90,125,100,95)</f>
+        <v>580</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>290</v>
+      </c>
+      <c r="X30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>92.6</v>
+      </c>
+      <c r="L31">
+        <f>SUM(55,95,52,58,62,55)</f>
+        <v>377</v>
+      </c>
+      <c r="M31">
+        <v>45</v>
+      </c>
+      <c r="N31">
+        <v>132</v>
+      </c>
+      <c r="U31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>145.5</v>
+      </c>
+      <c r="L32">
+        <f>SUM(90,85,90,100,125,90)</f>
+        <v>580</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>261</v>
+      </c>
+      <c r="X32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="L33">
+        <f>SUM(90,125,90,85,90,100)</f>
+        <v>580</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>261</v>
+      </c>
+      <c r="U33" t="b">
+        <v>1</v>
+      </c>
+      <c r="X33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>257.89999999999998</v>
+      </c>
+      <c r="L34">
+        <f>SUM(95,135,62,68,82,65)</f>
+        <v>507</v>
+      </c>
+      <c r="M34">
+        <v>45</v>
+      </c>
+      <c r="N34">
+        <v>177</v>
+      </c>
+      <c r="U34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>32.4</v>
+      </c>
+      <c r="L35">
+        <f>SUM(65,80,65,35,65,60)</f>
+        <v>370</v>
+      </c>
+      <c r="M35">
+        <v>120</v>
+      </c>
+      <c r="N35">
+        <v>130</v>
+      </c>
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>46.7</v>
+      </c>
+      <c r="L36">
+        <f>SUM(30,30,60,36,56,50)</f>
+        <v>262</v>
+      </c>
+      <c r="M36">
+        <v>255</v>
+      </c>
+      <c r="N36">
+        <v>52</v>
+      </c>
+      <c r="O36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>242.5</v>
+      </c>
+      <c r="L37">
+        <f>SUM(65,112,120,80,75,78)</f>
+        <v>530</v>
+      </c>
+      <c r="M37">
+        <v>135</v>
+      </c>
+      <c r="N37">
+        <v>235</v>
+      </c>
+      <c r="Q37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="L38">
+        <f>SUM(65,92,70,80,55,98)</f>
+        <v>460</v>
+      </c>
+      <c r="M38">
+        <v>25</v>
+      </c>
+      <c r="N38">
+        <v>161</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L39">
+        <f>SUM(15,30,90,40,20,15)</f>
+        <v>210</v>
+      </c>
+      <c r="M39">
+        <v>170</v>
+      </c>
+      <c r="N39">
+        <v>42</v>
+      </c>
+      <c r="AF39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>28.7</v>
+      </c>
+      <c r="L40">
+        <f>SUM(63,62,60,80,80,60)</f>
+        <v>405</v>
+      </c>
+      <c r="M40">
+        <v>45</v>
+      </c>
+      <c r="N40">
+        <v>142</v>
+      </c>
+      <c r="R40" t="b">
+        <v>1</v>
+      </c>
+      <c r="V40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>12.1</v>
+      </c>
+      <c r="L41">
+        <f>SUM(20,45,115,25,25,20)</f>
+        <v>250</v>
+      </c>
+      <c r="M41">
+        <v>170</v>
+      </c>
+      <c r="N41">
+        <v>95</v>
+      </c>
+      <c r="O41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>78.5</v>
+      </c>
+      <c r="L42">
+        <f>SUM(50,35,55,55,110,85)</f>
+        <v>390</v>
+      </c>
+      <c r="M42">
+        <v>90</v>
+      </c>
+      <c r="N42">
+        <v>134</v>
+      </c>
+      <c r="X42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>23.8</v>
+      </c>
+      <c r="L43">
+        <f>SUM(30,20,40,40,80,55)</f>
+        <v>265</v>
+      </c>
+      <c r="M43">
+        <v>255</v>
+      </c>
+      <c r="N43">
+        <v>52</v>
+      </c>
+      <c r="X43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+      <c r="L44">
+        <f>SUM(45,60,45,25,45,55)</f>
+        <v>275</v>
+      </c>
+      <c r="M44">
+        <v>255</v>
+      </c>
+      <c r="N44">
+        <v>55</v>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>67.2</v>
+      </c>
+      <c r="L45">
+        <f>SUM(49,85,60,60,49,60)</f>
+        <v>363</v>
+      </c>
+      <c r="M45">
+        <v>120</v>
+      </c>
+      <c r="N45">
+        <v>127</v>
+      </c>
+      <c r="S45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>92.6</v>
+      </c>
+      <c r="L46">
+        <f>SUM(79,120,80,95,79,70)</f>
+        <v>523</v>
+      </c>
+      <c r="M46">
+        <v>45</v>
+      </c>
+      <c r="N46">
+        <v>235</v>
+      </c>
+      <c r="S46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>21.8</v>
+      </c>
+      <c r="L47">
+        <f>SUM(55,20,50,25,25,30)</f>
+        <v>205</v>
+      </c>
+      <c r="M47">
+        <v>120</v>
+      </c>
+      <c r="N47">
+        <v>72</v>
+      </c>
+      <c r="Z47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="L48">
+        <f>SUM(70,50,60,50,90,65)</f>
+        <v>385</v>
+      </c>
+      <c r="M48">
+        <v>127</v>
+      </c>
+      <c r="N48">
+        <v>147</v>
+      </c>
+      <c r="AC48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>357.1</v>
+      </c>
+      <c r="L49">
+        <f>SUM(79,60,95,100,125,81)</f>
+        <v>540</v>
+      </c>
+      <c r="M49">
+        <v>60</v>
+      </c>
+      <c r="N49">
+        <v>189</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L50">
+        <f>SUM(40,50,60,85,75,95)</f>
+        <v>405</v>
+      </c>
+      <c r="M50">
+        <v>200</v>
+      </c>
+      <c r="N50">
+        <v>142</v>
+      </c>
+      <c r="S50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="L51">
+        <f>SUM(90,100,90,125,85,90)</f>
+        <v>580</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51">
+        <v>261</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="X51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>89.9</v>
+      </c>
+      <c r="L52">
+        <f>SUM(50,50,100,86,96,70)</f>
+        <v>452</v>
+      </c>
+      <c r="M52">
+        <v>90</v>
+      </c>
+      <c r="N52">
+        <v>162</v>
+      </c>
+      <c r="O52" t="b">
+        <v>1</v>
+      </c>
+      <c r="X52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>137</v>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>11.9</v>
+      </c>
+      <c r="L53">
+        <f>SUM(55,75,45,75,65,30)</f>
+        <v>345</v>
+      </c>
+      <c r="M53">
+        <v>255</v>
+      </c>
+      <c r="N53">
+        <v>64</v>
+      </c>
+      <c r="R53" t="s">
+        <v>73</v>
+      </c>
+      <c r="V53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" t="s">
+        <v>139</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>25.6</v>
+      </c>
+      <c r="L54">
+        <f>SUM(39,55,45,35,39,42)</f>
+        <v>255</v>
+      </c>
+      <c r="M54">
+        <v>255</v>
+      </c>
+      <c r="N54">
+        <v>51</v>
+      </c>
+      <c r="O54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>111.3</v>
+      </c>
+      <c r="L55">
+        <f>SUM(75,80,83,70,70,101)</f>
+        <v>479</v>
+      </c>
+      <c r="M55">
+        <v>45</v>
+      </c>
+      <c r="N55">
+        <v>172</v>
+      </c>
+      <c r="O55" t="b">
+        <v>1</v>
+      </c>
+      <c r="X55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="L56">
+        <f>SUM(55,60,63,50,50,71)</f>
+        <v>349</v>
+      </c>
+      <c r="M56">
+        <v>120</v>
+      </c>
+      <c r="N56">
+        <v>113</v>
+      </c>
+      <c r="O56" t="b">
+        <v>1</v>
+      </c>
+      <c r="X56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+      <c r="L57">
+        <f>SUM(40,45,40,35,35,56)</f>
+        <v>251</v>
+      </c>
+      <c r="M57">
+        <v>255</v>
+      </c>
+      <c r="N57">
+        <v>55</v>
+      </c>
+      <c r="O57" t="b">
+        <v>1</v>
+      </c>
+      <c r="X57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
+        <v>147</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>2.6</v>
+      </c>
+      <c r="L58">
+        <f>SUM(30,75,35,30,30,65)</f>
+        <v>265</v>
+      </c>
+      <c r="M58">
+        <v>255</v>
+      </c>
+      <c r="N58">
+        <v>53</v>
+      </c>
+      <c r="O58" t="b">
+        <v>1</v>
+      </c>
+      <c r="X58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>15.6</v>
+      </c>
+      <c r="L59">
+        <f>SUM(90,65,50,35,35,15)</f>
+        <v>290</v>
+      </c>
+      <c r="M59">
+        <v>199</v>
+      </c>
+      <c r="N59">
+        <v>58</v>
+      </c>
+      <c r="Z59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L60">
+        <f>SUM(40,50,60,85,75,95)</f>
+        <v>405</v>
+      </c>
+      <c r="M60">
+        <v>200</v>
+      </c>
+      <c r="N60">
+        <v>142</v>
+      </c>
+      <c r="S60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" t="s">
+        <v>153</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>30</v>
+      </c>
+      <c r="L61">
+        <f>SUM(35,55,35,30,30,35)</f>
+        <v>220</v>
+      </c>
+      <c r="M61">
+        <v>255</v>
+      </c>
+      <c r="N61">
+        <v>56</v>
+      </c>
+      <c r="AC61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" t="s">
+        <v>155</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="L62">
+        <f>SUM(60,81,55,50,70,97)</f>
+        <v>413</v>
+      </c>
+      <c r="M62">
+        <v>147</v>
+      </c>
+      <c r="N62">
+        <v>145</v>
+      </c>
+      <c r="O62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" t="s">
+        <v>157</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>7.7</v>
+      </c>
+      <c r="L63">
+        <f>SUM(35,56,30,25,35,72)</f>
+        <v>253</v>
+      </c>
+      <c r="M63">
+        <v>255</v>
+      </c>
+      <c r="N63">
+        <v>51</v>
+      </c>
+      <c r="O63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="L64">
+        <f>SUM(115,90,65,45,115,58)</f>
+        <v>488</v>
+      </c>
+      <c r="M64">
+        <v>90</v>
+      </c>
+      <c r="N64">
+        <v>171</v>
+      </c>
+      <c r="U64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" t="s">
+        <v>161</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>26</v>
+      </c>
+      <c r="L65">
+        <f>SUM(70,75,50,35,70,48)</f>
+        <v>348</v>
+      </c>
+      <c r="M65">
+        <v>180</v>
+      </c>
+      <c r="N65">
+        <v>70</v>
+      </c>
+      <c r="U65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" t="s">
+        <v>163</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>13.2</v>
+      </c>
+      <c r="L66">
+        <f>SUM(34,46,35,35,45,20)</f>
+        <v>215</v>
+      </c>
+      <c r="M66">
+        <v>255</v>
+      </c>
+      <c r="N66">
+        <v>43</v>
+      </c>
+      <c r="O66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>